--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618625.5042046828</v>
+        <v>704245.1635392602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433754.73901463</v>
+        <v>12462791.62801786</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367737</v>
+        <v>6927973.460166839</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9349750.276195053</v>
+        <v>9161343.066229003</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>211.2228407230371</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.52992297685017</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>222.7748278597896</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>96.75606231023232</v>
       </c>
       <c r="H4" t="n">
-        <v>22.31296636408669</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>322.6828700245201</v>
+        <v>116.9725659584293</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813361</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>63.37597849096221</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>34.19541834151828</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>91.78777464446802</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>100.2549290994207</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>81.78452128380687</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>349.4323201714354</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>138.8691979663503</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>46.12637581653248</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>170.981233410929</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>57.9251845168115</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>303.425554639955</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>35.26488194757239</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>63.39923236538965</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>145.2481701217143</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>19.58945082857547</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>233.2790012057592</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>238.6591887249604</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>177.6856110295951</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>209.69888469831</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>173.5578851713674</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>92.47445699814216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>218.0522523090835</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>135.2594250626535</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>57.92518451681224</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>67.57859506479031</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>77.31354443380519</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>141.4201311755209</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>316.2883174616773</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>85.17289288835038</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>176.7697821123589</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>149.6970050267232</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>299.8544819726754</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.5067518924962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>274.4291087681264</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.999108819008</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.159992120575</v>
       </c>
       <c r="E37" t="n">
-        <v>116.8059475363025</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>85.1728928883504</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>70.51113862850629</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>6.380068175848605</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>296.0128616828149</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>133.6650819731273</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.42874471570741</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>158.1556649146108</v>
+        <v>385.677442986947</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>97.54770949728849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>12.38920199294089</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.2300801016544</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="C2" t="n">
-        <v>820.2300801016544</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="D2" t="n">
-        <v>820.2300801016544</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="E2" t="n">
-        <v>820.2300801016544</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>232.541040622065</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>232.541040622065</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U2" t="n">
-        <v>820.2300801016544</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016544</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016544</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.2300801016544</v>
+        <v>717.0015419180337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>741.1305971282924</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>566.6775678471654</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>417.7431581859141</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>417.7431581859141</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>271.2086002127991</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>133.767202572021</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>32.85122471682558</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>741.1305971282924</v>
       </c>
       <c r="U3" t="n">
-        <v>481.2742972781153</v>
+        <v>741.1305971282924</v>
       </c>
       <c r="V3" t="n">
-        <v>246.1221890463726</v>
+        <v>741.1305971282924</v>
       </c>
       <c r="W3" t="n">
-        <v>21.09711040012049</v>
+        <v>741.1305971282924</v>
       </c>
       <c r="X3" t="n">
-        <v>21.09711040012049</v>
+        <v>741.1305971282924</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.09711040012049</v>
+        <v>741.1305971282924</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="C4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="E4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="F4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="G4" t="n">
-        <v>58.85990379705868</v>
+        <v>297.950953577229</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>828.7538312854207</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>621.313546537826</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>395.684349850191</v>
       </c>
       <c r="U4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="V4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="W4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="X4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
       <c r="Y4" t="n">
-        <v>227.4292644420552</v>
+        <v>395.684349850191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.86543639135742</v>
+        <v>670.32375641013</v>
       </c>
       <c r="C5" t="n">
-        <v>33.86543639135742</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D5" t="n">
-        <v>33.86543639135742</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="E5" t="n">
-        <v>33.86543639135742</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135742</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135742</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135742</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780281</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818698</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373996</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176499</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058972</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.2511208367</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921692</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567871</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567871</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.67434296196</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1339.682528309332</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1086.042142876612</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>760.0998499225515</v>
+        <v>936.7014129773079</v>
       </c>
       <c r="W5" t="n">
-        <v>407.3311946524373</v>
+        <v>936.7014129773079</v>
       </c>
       <c r="X5" t="n">
-        <v>33.86543639135742</v>
+        <v>936.7014129773079</v>
       </c>
       <c r="Y5" t="n">
-        <v>33.86543639135742</v>
+        <v>670.32375641013</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8121952449673</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765401</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324469</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650503</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877857</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445274</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562559</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>1361.632499699304</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>1534.557510313773</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232584</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567871</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843116</v>
+        <v>990.8393801161635</v>
       </c>
       <c r="T6" t="n">
-        <v>1550.180157843116</v>
+        <v>990.8393801161635</v>
       </c>
       <c r="U6" t="n">
-        <v>1550.180157843116</v>
+        <v>762.703534152977</v>
       </c>
       <c r="V6" t="n">
-        <v>1550.180157843116</v>
+        <v>527.5514259212343</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.639331235522</v>
+        <v>273.3140691930327</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.787831029989</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.027532265035</v>
+        <v>65.46256898749989</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>767.7690913198993</v>
+        <v>574.7019955581518</v>
       </c>
       <c r="C7" t="n">
-        <v>767.7690913198993</v>
+        <v>405.7658126302449</v>
       </c>
       <c r="D7" t="n">
-        <v>617.6524519075635</v>
+        <v>405.7658126302449</v>
       </c>
       <c r="E7" t="n">
-        <v>469.7393583251704</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590866</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652218</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128602</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119594</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191548</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361666</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1194.594558246086</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>992.1688423354565</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>767.7690913198993</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="U7" t="n">
-        <v>767.7690913198993</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="V7" t="n">
-        <v>767.7690913198993</v>
+        <v>574.7019955581518</v>
       </c>
       <c r="W7" t="n">
-        <v>767.7690913198993</v>
+        <v>574.7019955581518</v>
       </c>
       <c r="X7" t="n">
-        <v>767.7690913198993</v>
+        <v>574.7019955581518</v>
       </c>
       <c r="Y7" t="n">
-        <v>767.7690913198993</v>
+        <v>574.7019955581518</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.042027525391</v>
+        <v>1646.185839666972</v>
       </c>
       <c r="C8" t="n">
-        <v>1505.042027525391</v>
+        <v>1563.575212107571</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.042027525391</v>
+        <v>1563.575212107571</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.253774927147</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F8" t="n">
-        <v>708.2678701375394</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525391</v>
+        <v>1646.185839666972</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>533.4666540631119</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>359.013624781985</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>210.0792151207337</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908477</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143504</v>
+        <v>371.4749568374567</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458222</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1291.715511860585</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1583.074758115151</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>1853.295032556957</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>909.4422898481339</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>701.68199108318</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800312</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800312</v>
+        <v>665.2812185166025</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796261</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392144</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324639</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>125.0224038229021</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1976.204921733553</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5294,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>3084.006981117057</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2752.944093773487</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2752.944093773487</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2752.944093773487</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y14" t="n">
-        <v>2362.804761797675</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D17" t="n">
-        <v>552.8079389392144</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>552.8079389392144</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>552.8079389392144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5588,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5598,16 +5600,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5698,19 +5700,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W19" t="n">
-        <v>1494.054724415577</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X19" t="n">
         <v>1494.054724415577</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1754.744438482646</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1385.781921542234</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1027.516222935484</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>641.7279703372396</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>641.7279703372396</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
         <v>406.0926155839475</v>
@@ -5747,10 +5749,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,43 +5761,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y20" t="n">
-        <v>2141.344278546768</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,46 +5837,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.4780323548191</v>
+        <v>2342.011860380093</v>
       </c>
       <c r="C22" t="n">
-        <v>364.5418494269122</v>
+        <v>2173.075677452186</v>
       </c>
       <c r="D22" t="n">
-        <v>214.4252100145765</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1747.814132907084</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1526.04751747661</v>
+        <v>3113.788766358353</v>
       </c>
       <c r="U22" t="n">
-        <v>1236.944650602253</v>
+        <v>2824.685899483997</v>
       </c>
       <c r="V22" t="n">
-        <v>982.2601623963666</v>
+        <v>2570.00141127811</v>
       </c>
       <c r="W22" t="n">
-        <v>982.2601623963666</v>
+        <v>2570.00141127811</v>
       </c>
       <c r="X22" t="n">
-        <v>754.2706114983492</v>
+        <v>2342.011860380093</v>
       </c>
       <c r="Y22" t="n">
-        <v>533.4780323548191</v>
+        <v>2342.011860380093</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136265</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W23" t="n">
-        <v>3215.315153136265</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X23" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>754.9746608886195</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C25" t="n">
-        <v>754.9746608886195</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D25" t="n">
-        <v>604.8580214762837</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E25" t="n">
-        <v>456.9449278938906</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F25" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>1203.756790930167</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>1203.756790930167</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W25" t="n">
-        <v>1203.756790930167</v>
+        <v>3036.188651572211</v>
       </c>
       <c r="X25" t="n">
-        <v>975.7672400321496</v>
+        <v>2808.199100674194</v>
       </c>
       <c r="Y25" t="n">
-        <v>754.9746608886195</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1548.393281286113</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C26" t="n">
-        <v>1179.430764345701</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D26" t="n">
-        <v>821.1650657389509</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6239,13 +6241,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6254,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.366866857241</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W26" t="n">
-        <v>2698.598211587127</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X26" t="n">
-        <v>2325.132453326047</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1934.993121350235</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6306,7 +6308,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
         <v>765.151745215813</v>
@@ -6321,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1861.97070162018</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C28" t="n">
-        <v>1693.034518692273</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>1542.917879279937</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952861</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1784.445930739482</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="U28" t="n">
-        <v>3036.502954734814</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="V28" t="n">
-        <v>2781.818466528927</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W28" t="n">
-        <v>2492.401296491967</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X28" t="n">
-        <v>2264.411745593949</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y28" t="n">
-        <v>2043.619166450419</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796247</v>
+        <v>1998.10447029351</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939213</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5422403324625</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
         <v>108.5090151927147</v>
@@ -6458,13 +6460,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6476,37 +6478,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919558</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943746</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6558,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.924953962484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.988771034577</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.872131622241</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.959038039848</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916657</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.921333403283</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>3070.921333403283</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>2892.365997936254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>2671.573418792724</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810557</v>
@@ -6716,34 +6718,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3064.106057149677</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>3064.106057149677</v>
       </c>
       <c r="V32" t="n">
-        <v>2769.192029759092</v>
+        <v>3064.106057149677</v>
       </c>
       <c r="W32" t="n">
-        <v>2769.192029759092</v>
+        <v>2711.337401879563</v>
       </c>
       <c r="X32" t="n">
-        <v>2395.726271498012</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y32" t="n">
-        <v>2005.586939522201</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6780,25 +6782,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962485</v>
+        <v>2151.073568494537</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034578</v>
+        <v>1982.13738556663</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>1832.020746154295</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>1684.107652571901</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>1537.217705073991</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q34" t="n">
         <v>3325.605821609171</v>
@@ -6892,16 +6894,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.18865157221</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X34" t="n">
-        <v>2808.199100674193</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y34" t="n">
-        <v>2587.406521530663</v>
+        <v>2332.722033324777</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1559.116588708439</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C35" t="n">
-        <v>1190.154071768027</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D35" t="n">
-        <v>1190.154071768027</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
@@ -6947,16 +6949,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6965,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>1559.116588708439</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2043.619166450419</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C37" t="n">
-        <v>2043.619166450419</v>
+        <v>103.0373609984208</v>
       </c>
       <c r="D37" t="n">
-        <v>2043.619166450419</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>1925.633360858194</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>1778.743413360284</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>3036.502954734813</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V37" t="n">
-        <v>2781.818466528926</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W37" t="n">
-        <v>2492.401296491966</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X37" t="n">
-        <v>2264.411745593949</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y37" t="n">
-        <v>2043.619166450419</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796247</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939213</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324625</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>137.73548878421</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7178,22 +7180,22 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
@@ -7205,19 +7207,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1633.759572880767</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
         <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797168</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
         <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
         <v>3247.995525456655</v>
@@ -7354,28 +7356,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>3319.161308300232</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>3097.394692869758</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>2808.291825995401</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>2553.607337789515</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>2264.190167752554</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X40" t="n">
-        <v>2036.200616854537</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="Y40" t="n">
-        <v>1815.408037711007</v>
+        <v>1540.336209604299</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1032.06112435253</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C41" t="n">
-        <v>663.0986074121181</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267228</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923657</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653543</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392463</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416651</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7564,10 +7566,10 @@
         <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7591,7 +7593,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.730159486768</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
         <v>1722.044275313594</v>
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1381.278680221566</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C44" t="n">
-        <v>1012.316163281155</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D44" t="n">
-        <v>654.0504646744041</v>
+        <v>841.8735437647176</v>
       </c>
       <c r="E44" t="n">
-        <v>268.2622120761599</v>
+        <v>456.0852911664734</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7661,37 +7663,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.252265792694</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W44" t="n">
-        <v>2531.48361052258</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X44" t="n">
-        <v>2158.0178522615</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y44" t="n">
-        <v>1767.878520285688</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>873.2974438277585</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="C46" t="n">
-        <v>873.2974438277585</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="D46" t="n">
-        <v>723.1808044154227</v>
+        <v>541.532339585183</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>393.6192460027899</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>246.7292985048795</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>79.02646187959846</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>79.02646187959846</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
         <v>315.6219318279954</v>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923453</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637777</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157925</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>181.3506708776263</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127281</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.78173256953986</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589524</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>56.27460493020743</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219761</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>103.8180433521784</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>18.86898237295603</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863039</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22626,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>31.91588546273653</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>28.92015530113002</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>70.16471424433811</v>
       </c>
       <c r="H4" t="n">
-        <v>130.0691929717701</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22787,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539852</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>5.069388445614834</v>
+        <v>210.7796925117056</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -22860,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>83.77395692123656</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>217.4995648194013</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22942,13 +22944,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>54.64618800210116</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22957,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.1096782893139</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>283.4883704872007</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11538260151855</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23106,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>18.77588248905064</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23185,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.3075868300367</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23233,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>115.2459207102716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839101</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>348.9508612248999</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23276,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>79.30828702352562</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>215.7302900113296</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>301.8736594056179</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>265.6735555317392</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>266.9335475080155</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>177.6427244476942</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -24026,7 +24028,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>147.5787499310932</v>
       </c>
     </row>
     <row r="21">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>12.08341430184683</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>9.850064577859229</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>154.1943732987675</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>68.15958589652936</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>83.32522828944133</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>145.9927856228079</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>260.1736634053446</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>69.12041821276398</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>48.34889415592104</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>48.9845743093303</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>296.7574771839114</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>48.93987327667827</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>54.22096511289695</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>27.89777649745946</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.3252282894411</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>94.35543628911051</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25132,7 +25134,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>132.4469369735851</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25205,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.2388298370456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4554808976374</v>
       </c>
       <c r="E37" t="n">
-        <v>29.62801511026665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25360,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>296.7574771839114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>224.0966257588142</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.3889571555933</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>58.67017993786806</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.50340795433992</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>248.7203808271007</v>
+        <v>21.19860275476441</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -25883,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>48.88625314928068</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.96321841689721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>525126.3469434617</v>
+        <v>506142.6855778378</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>635857.9344871134</v>
+        <v>525126.3469434617</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>785399.4003928014</v>
+        <v>717311.7412719773</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862861.7948325115</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862861.7948325115</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325115</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325115</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862861.7948325112</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>196739.5707604094</v>
+      </c>
+      <c r="C2" t="n">
         <v>203966.5811971124</v>
       </c>
-      <c r="C2" t="n">
-        <v>247461.8373661103</v>
-      </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401895</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="J2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="L2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739512</v>
+        <v>26462.50553395188</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819065</v>
+        <v>291724.1809599827</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>62744.31078353565</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640822</v>
+        <v>6152.621870944797</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946802</v>
+        <v>70460.80690932028</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>72091.35261608608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>14501.70850239079</v>
+      </c>
+      <c r="C4" t="n">
         <v>15438.57384129048</v>
       </c>
-      <c r="C4" t="n">
-        <v>17555.97061758841</v>
-      </c>
       <c r="D4" t="n">
-        <v>20992.13942082914</v>
+        <v>18888.92742949787</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
@@ -26436,16 +26438,16 @@
         <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="J4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="K4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="L4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="M4" t="n">
         <v>10990.29103211609</v>
@@ -26467,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>61145.70223437328</v>
+      </c>
+      <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
-      <c r="C5" t="n">
-        <v>75746.87167923123</v>
-      </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-554607.7764396372</v>
+        <v>-531154.2844564436</v>
       </c>
       <c r="C6" t="n">
-        <v>-22513.62910466047</v>
+        <v>99017.69861760383</v>
       </c>
       <c r="D6" t="n">
-        <v>-31844.59074827173</v>
+        <v>-116264.9479051633</v>
       </c>
       <c r="E6" t="n">
-        <v>73627.48756022053</v>
+        <v>-20330.27838949893</v>
       </c>
       <c r="F6" t="n">
-        <v>255700.4673774113</v>
+        <v>255700.467377411</v>
       </c>
       <c r="G6" t="n">
-        <v>255700.4673774111</v>
+        <v>255700.4673774112</v>
       </c>
       <c r="H6" t="n">
         <v>255700.4673774111</v>
       </c>
       <c r="I6" t="n">
-        <v>255700.4673774114</v>
+        <v>255700.4673774111</v>
       </c>
       <c r="J6" t="n">
-        <v>186701.3129582971</v>
+        <v>192956.1565938756</v>
       </c>
       <c r="K6" t="n">
-        <v>214623.4858310029</v>
+        <v>249547.8455064662</v>
       </c>
       <c r="L6" t="n">
-        <v>200712.1761579431</v>
+        <v>185239.660468091</v>
       </c>
       <c r="M6" t="n">
-        <v>208148.2015839964</v>
+        <v>183609.114761325</v>
       </c>
       <c r="N6" t="n">
+        <v>255700.4673774112</v>
+      </c>
+      <c r="O6" t="n">
         <v>255700.4673774111</v>
-      </c>
-      <c r="O6" t="n">
-        <v>255700.4673774112</v>
       </c>
       <c r="P6" t="n">
         <v>255700.4673774111</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908069</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>239.8079481415045</v>
+      </c>
+      <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>423.3179548919677</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213287</v>
+        <v>20.57891343141341</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267323</v>
+        <v>239.6556507682061</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904614</v>
+        <v>23.90593186000157</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080713</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904612</v>
+        <v>23.90593186000123</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080715</v>
+        <v>278.4010767246575</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>289.2864986761291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904614</v>
+        <v>23.90593186000157</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080713</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053493</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339034</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599723</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>476.719354015977</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285358</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383303</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113108</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906151</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190744</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639403</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328146</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449897</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345742</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587859</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077335</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963308</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807087</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720639</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390991</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>212.41306557068</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488044</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170113</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843492</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544879</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879986</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548928</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32008,7 +32010,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
         <v>738.1512123099059</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33898,7 +33900,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.356529362318</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574995</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34132,7 +34134,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003797</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -34381,7 +34383,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099045</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746414</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>89.75123316395862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>69.6751224993221</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108158</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149918</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459898</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012631</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417394</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896241</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353456</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446249</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665382</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755612</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229714</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512409</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>423.3179548919677</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934033</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.1217261806169</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144310841</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237133</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771091</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768679</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819048</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691745</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681266</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>272.9497721634403</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923308</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37780,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553991</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -38029,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882178</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660653.2202152334</v>
+        <v>698124.4065607946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367737</v>
+        <v>6542240.186367734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9349750.276195053</v>
+        <v>9349750.276195051</v>
       </c>
     </row>
     <row r="11">
@@ -718,13 +718,13 @@
         <v>232.2791855053266</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>263.7138800015062</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69.67777870084828</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>145.9992531132333</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.27076883090995</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>91.47326284714806</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>263.7138800015062</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.2818458970816</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>355.3449791583392</v>
+        <v>328.789884245416</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>146.6064829508942</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>183.470431333255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>138.8164529068144</v>
       </c>
       <c r="U7" t="n">
-        <v>44.26605582865017</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>309.4232708290812</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>254.0044963257304</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>74.08682336414034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>125.9318144347991</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9302884123747</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>317.3552192833103</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>163.68984412497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>197.8107345113672</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>104.83479254017</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>281.9899532451256</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>109.7811651255443</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>80.76468634461058</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>175.3121446383126</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>217.2909868466485</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>77.31354443380462</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>282.3935320802036</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67650313406657</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>15.42290135054964</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>28.8801447782263</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>106.1117155756208</v>
       </c>
       <c r="F23" t="n">
-        <v>176.8030671570836</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,10 +2532,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>143.1333043369968</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>189.5635893911122</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>23.74571998351959</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>17.35112070699398</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>76.88610848101213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>104.5702261485539</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>342.8171881768175</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>300.4879207856022</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>112.9416910403791</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.2120483577847</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>224.2131267027218</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>17.35112070699443</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>24.01006515217569</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>155.6249412521978</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14.93663403485224</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>227.6636901231394</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.42234841526894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.19569619650049</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>16.70871526400909</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>88.01624809068203</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.4507143278944</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>95.84383925058388</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.26664236073933</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.747266045098</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>162.8434654572478</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>251.3821214809848</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>239.1697648352412</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>134.0389899623023</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4366,10 +4366,10 @@
         <v>820.2300801016545</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016545</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W2" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="X2" t="n">
         <v>287.4747669672985</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397.2507180260125</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>397.2507180260125</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>397.2507180260125</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>238.013263020557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>91.47870504744199</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4412,13 +4412,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>287.851233131345</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
         <v>739.52866342936</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>611.574711881066</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742821</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460806</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="X3" t="n">
-        <v>565.4660550460806</v>
+        <v>168.5711034437905</v>
       </c>
       <c r="Y3" t="n">
-        <v>565.4660550460806</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4491,16 +4491,16 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075544</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>962.4582848068853</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>696.0806282397074</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V4" t="n">
-        <v>441.3961400338205</v>
+        <v>533.7933752329599</v>
       </c>
       <c r="W4" t="n">
-        <v>175.0184834666425</v>
+        <v>267.4157186657819</v>
       </c>
       <c r="X4" t="n">
-        <v>175.0184834666425</v>
+        <v>267.4157186657819</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.0184834666425</v>
+        <v>46.62313952225176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.2742623187203</v>
+        <v>1219.563348774666</v>
       </c>
       <c r="C5" t="n">
-        <v>450.3117453783085</v>
+        <v>1219.563348774666</v>
       </c>
       <c r="D5" t="n">
-        <v>450.3117453783085</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="E5" t="n">
-        <v>450.3117453783085</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="F5" t="n">
-        <v>450.3117453783085</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780283</v>
+        <v>108.4604468780277</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818703</v>
+        <v>270.997549081869</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374002</v>
+        <v>509.5409587373979</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176504</v>
+        <v>806.6359018176473</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058972</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.2511208367</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921693</v>
+        <v>1590.394365921688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961961</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961961</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961961</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961961</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.674342961961</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="X5" t="n">
-        <v>1178.208584700881</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.2742623187203</v>
+        <v>1219.563348774666</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479.1354805051999</v>
+        <v>624.8229853331184</v>
       </c>
       <c r="C6" t="n">
-        <v>479.1354805051999</v>
+        <v>476.7356288170636</v>
       </c>
       <c r="D6" t="n">
-        <v>330.2010708439486</v>
+        <v>476.7356288170636</v>
       </c>
       <c r="E6" t="n">
-        <v>170.9636158384932</v>
+        <v>317.4981738116081</v>
       </c>
       <c r="F6" t="n">
-        <v>170.9636158384932</v>
+        <v>170.9636158384931</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J6" t="n">
-        <v>70.23016175877319</v>
+        <v>59.4758666532444</v>
       </c>
       <c r="K6" t="n">
-        <v>453.9778756130316</v>
+        <v>181.4029958650497</v>
       </c>
       <c r="L6" t="n">
-        <v>664.2464887357671</v>
+        <v>600.4877712080964</v>
       </c>
       <c r="M6" t="n">
-        <v>928.9769106925089</v>
+        <v>865.2181931648377</v>
       </c>
       <c r="N6" t="n">
-        <v>1215.122604104238</v>
+        <v>1151.363886576566</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.670215278436</v>
+        <v>1390.911497750763</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.595225892905</v>
+        <v>1563.836508365232</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.078019232579</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843117</v>
+        <v>1550.180157843111</v>
       </c>
       <c r="T6" t="n">
-        <v>1550.180157843117</v>
+        <v>1550.180157843111</v>
       </c>
       <c r="U6" t="n">
-        <v>1322.063950498601</v>
+        <v>1322.063950498595</v>
       </c>
       <c r="V6" t="n">
-        <v>1086.911842266858</v>
+        <v>1086.911842266853</v>
       </c>
       <c r="W6" t="n">
-        <v>832.6744855386569</v>
+        <v>832.6744855386512</v>
       </c>
       <c r="X6" t="n">
-        <v>832.6744855386569</v>
+        <v>624.8229853331184</v>
       </c>
       <c r="Y6" t="n">
-        <v>647.350817525268</v>
+        <v>624.8229853331184</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135743</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135743</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135743</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135743</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135743</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652222</v>
+        <v>36.28512133652195</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128603</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119595</v>
+        <v>396.8594047119587</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819155</v>
+        <v>646.3363778191538</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361669</v>
+        <v>895.3159625361653</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021383</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.46241238146</v>
+        <v>1155.643524097202</v>
       </c>
       <c r="U7" t="n">
-        <v>1026.749224675752</v>
+        <v>866.5070427260144</v>
       </c>
       <c r="V7" t="n">
-        <v>772.0647364698655</v>
+        <v>611.8225545201276</v>
       </c>
       <c r="W7" t="n">
-        <v>482.6475664329049</v>
+        <v>611.8225545201276</v>
       </c>
       <c r="X7" t="n">
-        <v>254.6580155348875</v>
+        <v>383.8330036221103</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.86543639135743</v>
+        <v>383.8330036221103</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825.2172354504648</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2172354504648</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9515368437143</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E8" t="n">
-        <v>466.9515368437143</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W8" t="n">
-        <v>1585.282833775666</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="X8" t="n">
-        <v>1211.817075514587</v>
+        <v>1596.425974538417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.817075514587</v>
+        <v>1206.286642562605</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,7 +4983,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
@@ -4992,22 +4992,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>750.3019723332208</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W10" t="n">
-        <v>460.8848022962601</v>
+        <v>793.1323075070934</v>
       </c>
       <c r="X10" t="n">
-        <v>232.8952513982428</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>665.9284545426499</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1853.982617026597</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C11" t="n">
-        <v>1853.982617026597</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>1495.716918419846</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296685</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.72178906653</v>
+        <v>2688.776577961587</v>
       </c>
       <c r="W11" t="n">
-        <v>2630.72178906653</v>
+        <v>2336.007922691473</v>
       </c>
       <c r="X11" t="n">
-        <v>2630.72178906653</v>
+        <v>1962.542164430393</v>
       </c>
       <c r="Y11" t="n">
-        <v>2240.582457090718</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.8553933260925</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218339</v>
@@ -5202,22 +5202,22 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484844</v>
+        <v>1727.485725349738</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610487</v>
+        <v>1438.382858475381</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046005</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676399</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696226</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260925</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1506.363819949359</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C14" t="n">
-        <v>1137.401303008947</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="D14" t="n">
-        <v>779.135604402197</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>393.3473518039528</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>393.3473518039528</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927148</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2656.568750250372</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2283.102991989293</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>1892.963660013481</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>994.2880032601528</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3518203322459</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199101</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E16" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088492</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1624.71859813194</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1624.71859813194</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1624.71859813194</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1624.71859813194</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>1396.729047233923</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.936468090393</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.124011696101</v>
+        <v>1186.041037313967</v>
       </c>
       <c r="C17" t="n">
-        <v>994.1614947556889</v>
+        <v>817.0785203735551</v>
       </c>
       <c r="D17" t="n">
-        <v>994.1614947556889</v>
+        <v>817.0785203735551</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>817.0785203735551</v>
       </c>
       <c r="F17" t="n">
         <v>406.0926155839475</v>
@@ -5512,55 +5512,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810573</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267228</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2866.097597267228</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W17" t="n">
-        <v>2513.328941997114</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>2139.863183736034</v>
+        <v>1962.7802093539</v>
       </c>
       <c r="Y17" t="n">
-        <v>1749.723851760222</v>
+        <v>1572.640877378089</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>463.6594280995014</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>866.1004720732712</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>645.3078929297411</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
         <v>1278.358723975039</v>
@@ -5743,61 +5743,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919558</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y20" t="n">
-        <v>1647.321240915451</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.3064969624535</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="C22" t="n">
-        <v>708.3064969624535</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="D22" t="n">
-        <v>558.1898575501177</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="E22" t="n">
-        <v>410.2767639677246</v>
+        <v>249.7936412903429</v>
       </c>
       <c r="F22" t="n">
-        <v>263.3868164698142</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>95.68397984453318</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T22" t="n">
-        <v>1735.608663915318</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1446.505797040962</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V22" t="n">
-        <v>1446.505797040962</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W22" t="n">
-        <v>1157.088627004001</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X22" t="n">
-        <v>929.0990761059836</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.3064969624535</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.909787855436</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C23" t="n">
-        <v>942.9472709150248</v>
+        <v>942.947270915027</v>
       </c>
       <c r="D23" t="n">
-        <v>584.6815723082743</v>
+        <v>584.6815723082766</v>
       </c>
       <c r="E23" t="n">
-        <v>584.6815723082743</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.1049005553748</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C25" t="n">
-        <v>381.1049005553748</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D25" t="n">
-        <v>381.1049005553748</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610488</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V25" t="n">
-        <v>1080.160086320592</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W25" t="n">
-        <v>790.7429162836319</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X25" t="n">
-        <v>562.7533653856145</v>
+        <v>906.6048703073945</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.7533653856145</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W26" t="n">
-        <v>3197.788768583745</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X26" t="n">
-        <v>2824.323010322666</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y26" t="n">
-        <v>2434.183678346854</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>628.7269654071706</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>459.7907824792637</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>382.1280466398575</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.157560278958</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.157560278958</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>1031.16800938094</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>810.3754302374103</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.109083729354</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.146566788942</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>3022.082669300481</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2669.314014030367</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X29" t="n">
-        <v>2295.848255769287</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1905.708923793476</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>475.3976737148901</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>475.3976737148901</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>327.4845801324969</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>180.5946326345866</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218342</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1739.201569949316</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1517.434954518842</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U31" t="n">
-        <v>1228.332087644485</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>973.6475994385985</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>684.2304294016378</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X31" t="n">
-        <v>456.2408785036205</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.4482993600903</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W32" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X32" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y32" t="n">
-        <v>2434.183678346854</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>690.6749427105746</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>521.7387597826677</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>371.6221203703319</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>223.7090267879388</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>223.7090267879388</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1605.601998493311</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1236.639481552899</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>878.3737829461486</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>492.5855303479044</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>81.59962555829679</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>81.59962555829679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>81.59962555829679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>2731.821353053395</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794324</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.341170533244</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y35" t="n">
-        <v>1992.201838557432</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7031,7 +7031,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>363.5187033424295</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C37" t="n">
-        <v>363.5187033424295</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218342</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408143</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427969</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992668</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>909.4479615424602</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>498.4620567528527</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>83.38960659784914</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W38" t="n">
-        <v>3126.409852034566</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y38" t="n">
-        <v>2362.804761797675</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>403.1511359853713</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1748.05140230274</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1526.284786872267</v>
+        <v>1638.796705076345</v>
       </c>
       <c r="U40" t="n">
-        <v>1237.18191999791</v>
+        <v>1349.693838201989</v>
       </c>
       <c r="V40" t="n">
-        <v>982.497431792023</v>
+        <v>1095.009349996102</v>
       </c>
       <c r="W40" t="n">
-        <v>693.0802617550623</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="X40" t="n">
-        <v>693.0802617550623</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0802617550623</v>
+        <v>584.799600815611</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1289.739170804068</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>903.9509182058241</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>492.9650134162166</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>77.89256326121301</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>77.89256326121301</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,13 +7505,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>644.3338566427969</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C43" t="n">
-        <v>475.3976737148901</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D43" t="n">
-        <v>325.2810343025543</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E43" t="n">
-        <v>177.3679407201612</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7575,19 +7575,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088492</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1060.250832663772</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408143</v>
+        <v>770.8336626268118</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427969</v>
+        <v>770.8336626268118</v>
       </c>
       <c r="Y43" t="n">
-        <v>644.3338566427969</v>
+        <v>550.0410834832817</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1844.338003964587</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C44" t="n">
-        <v>1590.416669135309</v>
+        <v>1402.455495256966</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.150970528558</v>
+        <v>1402.455495256966</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>1016.667242658722</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>605.6813378691145</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W44" t="n">
-        <v>2994.5429342656</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X44" t="n">
-        <v>2621.07717600452</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y44" t="n">
-        <v>2230.937844028708</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260938</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
-        <v>45.78351343583191</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157919</v>
+        <v>25.82445471157951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>10.86292434901862</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>210.9254163841534</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>64.20698706301133</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688971</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.911359959194669e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>18.86898237295591</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>122.5240586545474</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,13 +22634,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>66.34494088557517</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>59.68344266407107</v>
       </c>
     </row>
     <row r="4">
@@ -22713,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>121.1631938156592</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22722,7 +22722,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -22758,7 +22758,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>131.7410830324178</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>22.54475050117128</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539848</v>
+        <v>94.01296546539868</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.89295949771434</v>
+        <v>57.44805441063755</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>26.10201603742155</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681336</v>
+        <v>33.74703566813369</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.21226444404937</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,10 +22956,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
         <v>114.6998850700519</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>83.33930059858707</v>
       </c>
       <c r="U7" t="n">
-        <v>241.9790607288252</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>39.81769788833179</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>115.7266043527386</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23232,19 +23232,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>178.0508199596877</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>99.77784095423809</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>121.0000816598871</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>10.3970391868246</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.556976973657839</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>21.738214764802</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>249.8482490805129</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>128.9317724083278</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>109.7677841506249</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>137.8199670074842</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>206.6182254339492</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>152.4401138318205</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>88.7122638252236</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>66.8474366372094</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.561435521987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>129.9981466723816</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115.8748701360945</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>275.818654496641</v>
       </c>
       <c r="F23" t="n">
-        <v>230.0729785846279</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>109.0043389868312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>29.02106396098256</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>358.988121679961</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>233.644051251908</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>71.72936453720023</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.5674171752741</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>39.91665348666311</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>27.26433768453273</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>53.0841172186491</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>3.556976973657214</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>158.5207149607588</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>310.4011377631405</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>155.8219150297616</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.4008670068304</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>26.64029573807374</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>100.0885683469955</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.4096317666684</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>130.8301120625277</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>277.8990491233114</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>261.224720626731</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>12.31831100354748</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>123.7051100255853</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>30.31028741218668</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67378197783326</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>89.29417786658021</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>113.8907702900227</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>171.7519608182122</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>85.50995931386691</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>635857.9344871135</v>
+        <v>635857.9344871123</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>785399.4003928013</v>
+        <v>785399.4003928014</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862861.7948325111</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862861.7948325112</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325115</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862861.7948325112</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862861.7948325111</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862861.7948325112</v>
+        <v>862861.7948325111</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325111</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203966.5811971124</v>
+        <v>203966.5811971125</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661103</v>
+        <v>247461.8373661099</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709208</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709204</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26368,37 +26368,37 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739512</v>
+        <v>176672.6241739496</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819062</v>
+        <v>223886.309381908</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171902</v>
+        <v>182072.9798171901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.303402303979965e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911398</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640839</v>
+        <v>41076.98154640797</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946786</v>
+        <v>54988.29121946831</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>15438.57384129047</v>
       </c>
       <c r="C4" t="n">
-        <v>17555.97061758841</v>
+        <v>17555.97061758839</v>
       </c>
       <c r="D4" t="n">
-        <v>20992.13942082914</v>
+        <v>20992.13942082913</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211613</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="F4" t="n">
-        <v>10990.29103211613</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211616</v>
       </c>
       <c r="J4" t="n">
         <v>10990.29103211609</v>
@@ -26456,7 +26456,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="O4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211609</v>
@@ -26472,46 +26472,46 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923125</v>
+        <v>75746.87167923113</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-564935.4916263889</v>
+        <v>-555640.5479583126</v>
       </c>
       <c r="C6" t="n">
-        <v>-30666.58148296212</v>
+        <v>-23328.92434248935</v>
       </c>
       <c r="D6" t="n">
-        <v>-37072.05347016302</v>
+        <v>-32367.33702046223</v>
       </c>
       <c r="E6" t="n">
-        <v>70151.29826215979</v>
+        <v>73279.86863041512</v>
       </c>
       <c r="F6" t="n">
-        <v>252224.2780793501</v>
+        <v>255352.8484476052</v>
       </c>
       <c r="G6" t="n">
-        <v>252224.2780793495</v>
+        <v>255352.8484476052</v>
       </c>
       <c r="H6" t="n">
-        <v>252224.2780793506</v>
+        <v>255352.8484476048</v>
       </c>
       <c r="I6" t="n">
-        <v>252224.2780793501</v>
+        <v>255352.8484476054</v>
       </c>
       <c r="J6" t="n">
-        <v>183225.1236602361</v>
+        <v>186353.6940284911</v>
       </c>
       <c r="K6" t="n">
-        <v>211147.2965329417</v>
+        <v>214275.8669011972</v>
       </c>
       <c r="L6" t="n">
-        <v>197235.9868598822</v>
+        <v>200364.5572281368</v>
       </c>
       <c r="M6" t="n">
-        <v>204672.0122859352</v>
+        <v>207800.5826541903</v>
       </c>
       <c r="N6" t="n">
-        <v>252224.2780793503</v>
+        <v>255352.8484476052</v>
       </c>
       <c r="O6" t="n">
-        <v>252224.27807935</v>
+        <v>255352.8484476055</v>
       </c>
       <c r="P6" t="n">
-        <v>252224.2780793501</v>
+        <v>255352.8484476051</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908071</v>
+        <v>751.4467899908059</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26792,46 +26792,46 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919679</v>
+        <v>423.3179548919665</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213287</v>
+        <v>137.3917762213275</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267321</v>
+        <v>182.6181021267336</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757586</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="D4" t="n">
-        <v>217.266877208071</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904619</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080709</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208071</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053494</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339035</v>
+        <v>30.9377062833903</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>256.3943999677675</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599724</v>
+        <v>384.2687421599718</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159771</v>
+        <v>476.7193540159763</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285359</v>
+        <v>530.4421353285351</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383305</v>
+        <v>539.0252436383296</v>
       </c>
       <c r="O5" t="n">
-        <v>508.986252611311</v>
+        <v>508.9862526113101</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906153</v>
+        <v>434.4079907906146</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190745</v>
+        <v>326.2223097190739</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639406</v>
+        <v>68.83856774639395</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802918</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.241671329444279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395998</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328148</v>
+        <v>55.64959718328139</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433206</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>350.9469182876873</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449899</v>
+        <v>409.5385005449892</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345743</v>
+        <v>420.3777660345736</v>
       </c>
       <c r="O6" t="n">
-        <v>384.563528458786</v>
+        <v>384.5635284587854</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077336</v>
+        <v>308.6461353077331</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633081</v>
+        <v>30.02242599633076</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680709</v>
+        <v>6.514901886807078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950636</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572064</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390994</v>
+        <v>95.80330632390978</v>
       </c>
       <c r="K7" t="n">
-        <v>157.434261902992</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706801</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>207.3623576379548</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488045</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170114</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886119</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843493</v>
+        <v>60.92878398843483</v>
       </c>
       <c r="S7" t="n">
-        <v>23.6151392854488</v>
+        <v>23.61513928544876</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879988</v>
+        <v>5.789835922879978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548931</v>
+        <v>0.07391279901548918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563592</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003831</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33280,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34240,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34289,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34307,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>194.0102040017882</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108164</v>
+        <v>75.34849544108124</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149919</v>
+        <v>164.1788911149912</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459899</v>
+        <v>240.9529390459891</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012632</v>
+        <v>300.0959021012624</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417396</v>
+        <v>309.6121800417387</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896242</v>
+        <v>278.8880411896234</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353458</v>
+        <v>203.174995035345</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844625</v>
+        <v>103.9166198446244</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36.73204582567249</v>
+        <v>25.86912147665362</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881399</v>
+        <v>123.1587163755609</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>423.3179548919665</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229715</v>
+        <v>267.4044666229709</v>
       </c>
       <c r="N6" t="n">
-        <v>289.036053951241</v>
+        <v>289.0360539512403</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143415</v>
+        <v>241.9672840143409</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934034</v>
+        <v>174.6717278934029</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107709</v>
+        <v>130.5469806740881</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.195757914430942</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237161</v>
+        <v>2.444126207237005</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771092</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.051677776868</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>251.4945300171834</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>216.1178277628438</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819049</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691748</v>
+        <v>27.3064220369173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222709</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554025</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222663</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37387,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
